--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072F48EF-5068-47D3-9FA9-EC8537128615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F75252C-2DAC-4CB7-810A-1523721CDF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>ルーレット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明１
+説明２</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -206,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,6 +233,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -237,11 +255,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:G2" totalsRowShown="0">
+  <autoFilter ref="A1:G2" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{806F626C-3F0C-4B58-9C95-749914829FBF}" name="ID"/>
     <tableColumn id="3" xr3:uid="{011D1100-AB81-4B26-B0A2-907BE1BE4019}" name="PondId"/>
+    <tableColumn id="7" xr3:uid="{C5DEBF70-0838-4E0C-ADBD-3DC5D31DE75B}" name="Title"/>
     <tableColumn id="2" xr3:uid="{0D28524B-FF97-4F24-8CE2-B7133B24D4BB}" name="Des"/>
     <tableColumn id="4" xr3:uid="{7BF87A33-3530-418E-A98F-2ACBD90C51B9}" name="Cost"/>
     <tableColumn id="5" xr3:uid="{2108F67A-AA95-4463-BB66-4CA8DFCBEC9C}" name="CostCount"/>
@@ -548,21 +567,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1B00CF-321F-4070-96EE-2D0073F8556E}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,19 +590,22 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -592,13 +615,16 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
         <v>9000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F75252C-2DAC-4CB7-810A-1523721CDF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B28CD9-135A-48C1-BBF4-F82E9E47EEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -122,6 +122,17 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AddBonusPercent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おまけのあたりパーセント（千分率）</t>
+    <rPh sb="13" eb="16">
+      <t>センブンリツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -255,9 +266,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:G2" totalsRowShown="0">
-  <autoFilter ref="A1:G2" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:H2" totalsRowShown="0">
+  <autoFilter ref="A1:H2" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806F626C-3F0C-4B58-9C95-749914829FBF}" name="ID"/>
     <tableColumn id="3" xr3:uid="{011D1100-AB81-4B26-B0A2-907BE1BE4019}" name="PondId"/>
     <tableColumn id="7" xr3:uid="{C5DEBF70-0838-4E0C-ADBD-3DC5D31DE75B}" name="Title"/>
@@ -265,6 +276,7 @@
     <tableColumn id="4" xr3:uid="{7BF87A33-3530-418E-A98F-2ACBD90C51B9}" name="Cost"/>
     <tableColumn id="5" xr3:uid="{2108F67A-AA95-4463-BB66-4CA8DFCBEC9C}" name="CostCount"/>
     <tableColumn id="6" xr3:uid="{B557F2EC-2653-49A3-BB52-F431D6126B61}" name="Roulette"/>
+    <tableColumn id="8" xr3:uid="{2D10A0C5-A1B3-4C6D-87BA-C5C1D7470C90}" name="AddBonusPercent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -567,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1B00CF-321F-4070-96EE-2D0073F8556E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -582,7 +594,7 @@
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,8 +616,11 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -626,6 +641,9 @@
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -640,10 +658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7763A2E5-CD43-4ACC-832A-B3998DE40EAE}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -713,6 +731,16 @@
         <v>13</v>
       </c>
     </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B28CD9-135A-48C1-BBF4-F82E9E47EEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DE0AE1-F687-4F31-9728-B4CED857F97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
+    <workbookView xWindow="2385" yWindow="2100" windowWidth="24525" windowHeight="12975" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -592,6 +592,7 @@
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
@@ -643,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DE0AE1-F687-4F31-9728-B4CED857F97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B0293C-6019-4338-9A31-34D76435370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2100" windowWidth="24525" windowHeight="12975" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
+    <workbookView xWindow="3180" yWindow="2340" windowWidth="24525" windowHeight="12975" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -112,17 +112,6 @@
   </si>
   <si>
     <t>Title</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>説明１
-説明２</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セツメイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -582,7 +571,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -618,10 +607,10 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -631,9 +620,7 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2">
         <v>9000</v>
       </c>
@@ -734,12 +721,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B0293C-6019-4338-9A31-34D76435370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2733A5E4-CD20-4D50-821D-BA64B2C8DB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2340" windowWidth="24525" windowHeight="12975" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24525" windowHeight="12975" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,20 +35,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Des</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>十連ガチャ</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウレン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -589,25 +582,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -616,9 +609,6 @@
       </c>
       <c r="B2">
         <v>1000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2">
@@ -656,7 +646,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -666,17 +656,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -686,47 +676,47 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2733A5E4-CD20-4D50-821D-BA64B2C8DB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA996C8-1F72-49DA-8C5A-126AB28E0ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="24525" windowHeight="12975" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -115,6 +115,28 @@
     <t>おまけのあたりパーセント（千分率）</t>
     <rPh sb="13" eb="16">
       <t>センブンリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BtnImage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/button_2d_38</t>
+  </si>
+  <si>
+    <t>Textures/shop_2d_14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10連ガチャ</t>
+    <rPh sb="2" eb="3">
+      <t>レン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -248,11 +270,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:J3" totalsRowShown="0">
+  <autoFilter ref="A1:J3" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{806F626C-3F0C-4B58-9C95-749914829FBF}" name="ID"/>
     <tableColumn id="3" xr3:uid="{011D1100-AB81-4B26-B0A2-907BE1BE4019}" name="PondId"/>
+    <tableColumn id="9" xr3:uid="{9CFF5B5E-73EC-4167-8131-60B7A39861E1}" name="Image"/>
+    <tableColumn id="10" xr3:uid="{5F77DF4B-BCFF-4D66-AEA3-AF085C1E6120}" name="BtnImage"/>
     <tableColumn id="7" xr3:uid="{C5DEBF70-0838-4E0C-ADBD-3DC5D31DE75B}" name="Title"/>
     <tableColumn id="2" xr3:uid="{0D28524B-FF97-4F24-8CE2-B7133B24D4BB}" name="Des"/>
     <tableColumn id="4" xr3:uid="{7BF87A33-3530-418E-A98F-2ACBD90C51B9}" name="Cost"/>
@@ -561,23 +585,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1B00CF-321F-4070-96EE-2D0073F8556E}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="3" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,42 +609,87 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1000</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2">
         <v>9000</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="J2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3">
+        <v>9000</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>500</v>
       </c>
     </row>

--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA996C8-1F72-49DA-8C5A-126AB28E0ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D4374C-3A30-49B1-9DFB-AF7B419FB1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24525" windowHeight="12975" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="24525" windowHeight="12975" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -138,6 +138,60 @@
     <rPh sb="2" eb="3">
       <t>レン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ToggleImageON</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ToggleImageOFF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガチャIcon画像</t>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガチャボタン画像</t>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガチャ一覧ボタン画像（ON）</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガチャ一覧ボタン画像（OFF）</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/button_2d_38</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/mission_2d_009</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/mission_2d_008</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -236,7 +290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,6 +305,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -270,13 +327,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:J3" totalsRowShown="0">
-  <autoFilter ref="A1:J3" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:L4" totalsRowShown="0">
+  <autoFilter ref="A1:L4" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{806F626C-3F0C-4B58-9C95-749914829FBF}" name="ID"/>
     <tableColumn id="3" xr3:uid="{011D1100-AB81-4B26-B0A2-907BE1BE4019}" name="PondId"/>
     <tableColumn id="9" xr3:uid="{9CFF5B5E-73EC-4167-8131-60B7A39861E1}" name="Image"/>
     <tableColumn id="10" xr3:uid="{5F77DF4B-BCFF-4D66-AEA3-AF085C1E6120}" name="BtnImage"/>
+    <tableColumn id="11" xr3:uid="{5BFBEE4B-E6DC-4A9D-8751-0A9C8484B6FA}" name="ToggleImageON"/>
+    <tableColumn id="12" xr3:uid="{E33F93AE-89BA-4578-A68B-790ED4E1971E}" name="ToggleImageOFF"/>
     <tableColumn id="7" xr3:uid="{C5DEBF70-0838-4E0C-ADBD-3DC5D31DE75B}" name="Title"/>
     <tableColumn id="2" xr3:uid="{0D28524B-FF97-4F24-8CE2-B7133B24D4BB}" name="Des"/>
     <tableColumn id="4" xr3:uid="{7BF87A33-3530-418E-A98F-2ACBD90C51B9}" name="Cost"/>
@@ -585,23 +644,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1B00CF-321F-4070-96EE-2D0073F8556E}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="3" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,25 +674,31 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -644,26 +709,32 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2">
+      <c r="H2" s="4"/>
+      <c r="I2">
         <v>9000</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -677,19 +748,61 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3">
+      <c r="H3" s="4"/>
+      <c r="I3">
         <v>9000</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>200</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="L3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4">
+        <v>9000</v>
+      </c>
+      <c r="J4">
+        <v>300</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>500</v>
       </c>
     </row>
@@ -705,86 +818,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7763A2E5-CD43-4ACC-832A-B3998DE40EAE}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D4374C-3A30-49B1-9DFB-AF7B419FB1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B88478-CC32-456C-8B0D-6C196FE02B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="24525" windowHeight="12975" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
+    <workbookView xWindow="-23715" yWindow="660" windowWidth="18660" windowHeight="9810" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -187,11 +178,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Textures/mission_2d_009</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Textures/mission_2d_008</t>
+    <t>Textures/shop_2d_31</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_32</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_033</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_034</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_035</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -647,20 +650,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.09765625" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="9" max="9" width="7.09765625" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -712,10 +715,10 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -734,7 +737,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -742,16 +745,16 @@
         <v>1001</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -761,7 +764,7 @@
         <v>9000</v>
       </c>
       <c r="J3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -770,24 +773,24 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -824,47 +827,47 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -872,7 +875,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -880,7 +883,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -888,7 +891,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -896,7 +899,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -904,7 +907,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -912,52 +915,52 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>15</v>
       </c>

--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B88478-CC32-456C-8B0D-6C196FE02B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C41232-5873-4D8D-95E1-1B694F8A5537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23715" yWindow="660" windowWidth="18660" windowHeight="9810" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
+    <workbookView xWindow="-22650" yWindow="1500" windowWidth="18495" windowHeight="10515" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,14 +178,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Textures/shop_2d_31</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Textures/shop_2d_32</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Textures/shop_2d_033</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -195,6 +187,14 @@
   </si>
   <si>
     <t>Textures/shop_2d_035</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_031</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_032</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -650,7 +650,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -715,10 +715,10 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -745,16 +745,16 @@
         <v>1001</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -781,16 +781,16 @@
         <v>1002</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>

--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C41232-5873-4D8D-95E1-1B694F8A5537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE842034-3063-43B2-9C65-3D3BCB1244FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22650" yWindow="1500" windowWidth="18495" windowHeight="10515" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
+    <workbookView xWindow="288" yWindow="396" windowWidth="17280" windowHeight="8964" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1B00CF-321F-4070-96EE-2D0073F8556E}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -767,7 +767,7 @@
         <v>100</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>500</v>
@@ -803,7 +803,7 @@
         <v>300</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>500</v>

--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE842034-3063-43B2-9C65-3D3BCB1244FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E11F21-523F-41F6-89F0-4AFA93C9368E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="396" windowWidth="17280" windowHeight="8964" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -121,10 +128,6 @@
     <t>Textures/button_2d_38</t>
   </si>
   <si>
-    <t>Textures/shop_2d_14</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>10連ガチャ</t>
     <rPh sb="2" eb="3">
       <t>レン</t>
@@ -178,23 +181,56 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Textures/shop_2d_033</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Textures/shop_2d_034</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Textures/shop_2d_035</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Textures/shop_2d_031</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Textures/shop_2d_032</t>
+    <t>Textures/button_2d_046</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/button_2d_047</t>
+  </si>
+  <si>
+    <t>Textures/button_2d_048</t>
+  </si>
+  <si>
+    <t>Textures/button_2d_049</t>
+  </si>
+  <si>
+    <t>GachaCount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単発ガチャ</t>
+    <rPh sb="0" eb="2">
+      <t>タンパツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3連ガチャ</t>
+    <rPh sb="1" eb="2">
+      <t>レn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5連ガチャ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7連ガチャ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10連ガチャ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガチャを引く回数</t>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイスウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -202,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +263,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +283,24 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -293,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,6 +372,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -330,21 +407,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:L4" totalsRowShown="0">
-  <autoFilter ref="A1:L4" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:J17" totalsRowShown="0">
+  <autoFilter ref="A1:J17" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{806F626C-3F0C-4B58-9C95-749914829FBF}" name="ID"/>
     <tableColumn id="3" xr3:uid="{011D1100-AB81-4B26-B0A2-907BE1BE4019}" name="PondId"/>
-    <tableColumn id="9" xr3:uid="{9CFF5B5E-73EC-4167-8131-60B7A39861E1}" name="Image"/>
     <tableColumn id="10" xr3:uid="{5F77DF4B-BCFF-4D66-AEA3-AF085C1E6120}" name="BtnImage"/>
-    <tableColumn id="11" xr3:uid="{5BFBEE4B-E6DC-4A9D-8751-0A9C8484B6FA}" name="ToggleImageON"/>
-    <tableColumn id="12" xr3:uid="{E33F93AE-89BA-4578-A68B-790ED4E1971E}" name="ToggleImageOFF"/>
     <tableColumn id="7" xr3:uid="{C5DEBF70-0838-4E0C-ADBD-3DC5D31DE75B}" name="Title"/>
     <tableColumn id="2" xr3:uid="{0D28524B-FF97-4F24-8CE2-B7133B24D4BB}" name="Des"/>
     <tableColumn id="4" xr3:uid="{7BF87A33-3530-418E-A98F-2ACBD90C51B9}" name="Cost"/>
     <tableColumn id="5" xr3:uid="{2108F67A-AA95-4463-BB66-4CA8DFCBEC9C}" name="CostCount"/>
     <tableColumn id="6" xr3:uid="{B557F2EC-2653-49A3-BB52-F431D6126B61}" name="Roulette"/>
     <tableColumn id="8" xr3:uid="{2D10A0C5-A1B3-4C6D-87BA-C5C1D7470C90}" name="AddBonusPercent"/>
+    <tableColumn id="15" xr3:uid="{F5B8E70D-162F-453C-8170-14FE74CCACE6}" name="GachaCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,23 +722,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1B00CF-321F-4070-96EE-2D0073F8556E}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.09765625" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="7.09765625" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,37 +750,31 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -709,35 +782,29 @@
         <v>1000</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2">
+        <v>9000</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
       <c r="I2">
-        <v>9000</v>
+        <v>500</v>
       </c>
       <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -745,35 +812,29 @@
         <v>1001</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3">
+        <v>9000</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
       <c r="I3">
-        <v>9000</v>
+        <v>500</v>
       </c>
       <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -781,32 +842,416 @@
         <v>1002</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4">
+        <v>9000</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5">
+        <v>9000</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6">
+        <v>9000</v>
+      </c>
+      <c r="G6">
+        <v>250</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7">
+        <v>9000</v>
+      </c>
+      <c r="G7">
+        <v>400</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1003</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8">
+        <v>9000</v>
+      </c>
+      <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1003</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4">
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9">
         <v>9000</v>
       </c>
-      <c r="J4">
-        <v>300</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>500</v>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1004</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10">
+        <v>9000</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11">
+        <v>9000</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1004</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12">
+        <v>9000</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1004</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13">
+        <v>9000</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1004</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14">
+        <v>9000</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1005</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15">
+        <v>9001</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1005</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16">
+        <v>9001</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1006</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17">
+        <v>9003</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -821,53 +1266,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7763A2E5-CD43-4ACC-832A-B3998DE40EAE}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -875,94 +1320,104 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E11F21-523F-41F6-89F0-4AFA93C9368E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4EA50A-E742-47DB-941F-2636A840833C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
@@ -725,7 +725,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -885,7 +885,7 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -945,7 +945,7 @@
         <v>400</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1005,7 +1005,7 @@
         <v>1000</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -1019,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1035,7 +1035,7 @@
         <v>1000</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I10">
         <v>100</v>
@@ -1049,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1065,7 +1065,7 @@
         <v>1000</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I11">
         <v>100</v>
@@ -1079,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -1095,7 +1095,7 @@
         <v>1000</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>100</v>
@@ -1109,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         <v>1000</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I13">
         <v>100</v>
@@ -1139,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1155,7 +1155,7 @@
         <v>1000</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>100</v>
@@ -1169,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1185,10 +1185,10 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I15">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1215,7 +1215,7 @@
         <v>1000</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1229,7 +1229,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I17">
         <v>50</v>

--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4EA50A-E742-47DB-941F-2636A840833C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD673A5-C376-453A-993A-F07D925D8A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -188,12 +188,6 @@
     <t>Textures/button_2d_047</t>
   </si>
   <si>
-    <t>Textures/button_2d_048</t>
-  </si>
-  <si>
-    <t>Textures/button_2d_049</t>
-  </si>
-  <si>
     <t>GachaCount</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -209,14 +203,6 @@
     <rPh sb="1" eb="2">
       <t>レn</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5連ガチャ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>7連ガチャ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -238,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +254,13 @@
       <color rgb="FFFFFF00"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -349,13 +342,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,6 +390,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,8 +424,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:J17" totalsRowShown="0">
-  <autoFilter ref="A1:J17" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:J19" totalsRowShown="0">
+  <autoFilter ref="A1:J19" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{806F626C-3F0C-4B58-9C95-749914829FBF}" name="ID"/>
     <tableColumn id="3" xr3:uid="{011D1100-AB81-4B26-B0A2-907BE1BE4019}" name="PondId"/>
@@ -722,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1B00CF-321F-4070-96EE-2D0073F8556E}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -771,7 +788,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -865,24 +882,24 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="6">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1003</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5">
         <v>9000</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -891,11 +908,11 @@
         <v>50</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6">
@@ -905,14 +922,14 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6">
         <v>9000</v>
       </c>
       <c r="G6">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -925,24 +942,24 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1003</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7">
         <v>9000</v>
       </c>
       <c r="G7">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -951,28 +968,28 @@
         <v>50</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="6">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1003</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8">
         <v>9000</v>
       </c>
       <c r="G8">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -981,28 +998,28 @@
         <v>50</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1003</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9">
         <v>9000</v>
       </c>
       <c r="G9">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="H9">
         <v>9</v>
@@ -1011,7 +1028,7 @@
         <v>50</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -1025,7 +1042,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10">
@@ -1055,7 +1072,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11">
@@ -1085,7 +1102,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12">
@@ -1115,7 +1132,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13">
@@ -1145,7 +1162,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14">
@@ -1175,17 +1192,17 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15">
         <v>9001</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -1205,17 +1222,17 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16">
         <v>9001</v>
       </c>
       <c r="G16">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1235,7 +1252,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17">
@@ -1245,12 +1262,72 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17">
         <v>50</v>
       </c>
       <c r="J17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1005</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="13">
+        <v>9000</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18" s="13">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="J18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1005</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="13">
+        <v>9000</v>
+      </c>
+      <c r="G19">
+        <v>1000</v>
+      </c>
+      <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
         <v>10</v>
       </c>
     </row>
@@ -1412,12 +1489,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD673A5-C376-453A-993A-F07D925D8A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABBF8B9-295A-4A57-B894-EDCB540DB5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
@@ -742,7 +742,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1199,7 +1199,7 @@
         <v>9001</v>
       </c>
       <c r="G15">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="H15">
         <v>12</v>
@@ -1229,7 +1229,7 @@
         <v>9001</v>
       </c>
       <c r="G16">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="H16">
         <v>12</v>

--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABBF8B9-295A-4A57-B894-EDCB540DB5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8566384D-3901-45FB-9817-DE2122F056C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
@@ -742,7 +742,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1055,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>7</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -1115,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="I12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <v>10</v>
@@ -1145,7 +1145,7 @@
         <v>9</v>
       </c>
       <c r="I13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -1175,7 +1175,7 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -1295,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="I18">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J18" s="13">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>10</v>

--- a/Config/Excel/Gacha.xlsx
+++ b/Config/Excel/Gacha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8566384D-3901-45FB-9817-DE2122F056C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8AEB5C-CA0E-4D58-9C50-A5D7204A8A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="J2">
         <v>10</v>
@@ -845,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -875,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -905,7 +905,7 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -935,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -965,7 +965,7 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -995,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -1025,7 +1025,7 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1055,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>7</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -1115,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="I12">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J12">
         <v>10</v>
@@ -1145,7 +1145,7 @@
         <v>9</v>
       </c>
       <c r="I13">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -1175,7 +1175,7 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -1205,7 +1205,7 @@
         <v>12</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="I16">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -1265,7 +1265,7 @@
         <v>12</v>
       </c>
       <c r="I17">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J17">
         <v>10</v>
@@ -1295,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J18" s="13">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J19">
         <v>10</v>
